--- a/HW1/HW1_group4.xlsx
+++ b/HW1/HW1_group4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109BBE83-C72F-A14F-9131-C441CF9B4A39}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF87101-6377-3D44-BEF9-9A7BDF7B4966}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="23720" windowHeight="14400" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,11 +776,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -817,6 +818,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -829,15 +833,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -24484,18 +24499,18 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
@@ -24900,18 +24915,18 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
@@ -25412,18 +25427,18 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
@@ -25828,18 +25843,18 @@
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="38"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C20" s="16" t="s">
@@ -26358,7 +26373,7 @@
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <f>C5*C16*D16</f>
         <v>3780000</v>
       </c>
@@ -26366,7 +26381,7 @@
         <f>C5*E16</f>
         <v>40</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="37">
         <f>F16*C5*C16</f>
         <v>12600000</v>
       </c>
@@ -26378,7 +26393,7 @@
       <c r="C6">
         <v>24</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <f>C6*C17*D17</f>
         <v>2520000</v>
       </c>
@@ -26386,7 +26401,7 @@
         <f>C6*E17</f>
         <v>24</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <f>F17*C6*C17</f>
         <v>10080000</v>
       </c>
@@ -26399,7 +26414,7 @@
         <f>SUM(C5:C6)</f>
         <v>44</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <f>SUM(D5:D6)</f>
         <v>6300000</v>
       </c>
@@ -26407,7 +26422,7 @@
         <f>SUM(E5:E6)</f>
         <v>64</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="37">
         <f>SUM(F5:F6)</f>
         <v>22680000</v>
       </c>
@@ -26436,7 +26451,7 @@
       <c r="C16">
         <v>21</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <v>9000</v>
       </c>
       <c r="E16">
@@ -26453,7 +26468,7 @@
       <c r="C17">
         <v>21</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="36">
         <v>5000</v>
       </c>
       <c r="E17">
@@ -26464,7 +26479,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
@@ -26478,11 +26493,11 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
+      <c r="B22" s="42"/>
       <c r="C22">
         <v>44</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="36">
         <v>7000000</v>
       </c>
       <c r="E22">
@@ -26534,7 +26549,7 @@
       <c r="C5">
         <v>4.5238094999999996</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <f>C5*C16*D16</f>
         <v>854999.99549999984</v>
       </c>
@@ -26542,7 +26557,7 @@
         <f>C5*E16</f>
         <v>9.0476189999999992</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="37">
         <f>F16*C5*C16</f>
         <v>2849999.9849999994</v>
       </c>
@@ -26554,7 +26569,7 @@
       <c r="C6">
         <v>39.476190000000003</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <f>C6*C17*D17</f>
         <v>4144999.95</v>
       </c>
@@ -26562,7 +26577,7 @@
         <f>C6*E17</f>
         <v>39.476190000000003</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="37">
         <f>F17*C6*C17</f>
         <v>16579999.800000001</v>
       </c>
@@ -26575,7 +26590,7 @@
         <f>SUM(C5:C6)</f>
         <v>43.999999500000001</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <f>SUM(D5:D6)</f>
         <v>4999999.9455000004</v>
       </c>
@@ -26583,7 +26598,7 @@
         <f>SUM(E5:E6)</f>
         <v>48.523809</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="37">
         <f>SUM(F5:F6)</f>
         <v>19429999.785</v>
       </c>
@@ -26612,7 +26627,7 @@
       <c r="C16">
         <v>21</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <v>9000</v>
       </c>
       <c r="E16">
@@ -26629,7 +26644,7 @@
       <c r="C17">
         <v>21</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="36">
         <v>5000</v>
       </c>
       <c r="E17">
@@ -26640,7 +26655,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="42" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
@@ -26654,11 +26669,11 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="39"/>
+      <c r="B22" s="42"/>
       <c r="C22">
         <v>44</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="36">
         <v>5000000</v>
       </c>
       <c r="E22">
@@ -26676,10 +26691,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B3:M26"/>
+  <dimension ref="B3:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26693,8 +26708,8 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
@@ -26726,7 +26741,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
@@ -26760,8 +26775,10 @@
         <f>D5*$H5</f>
         <v>681</v>
       </c>
+      <c r="M5" s="43"/>
+      <c r="N5" s="44"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
@@ -26795,8 +26812,10 @@
         <f t="shared" ref="K6:K18" si="2">D6*$H6</f>
         <v>4960</v>
       </c>
+      <c r="M6" s="43"/>
+      <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -26830,8 +26849,10 @@
         <f t="shared" si="2"/>
         <v>2430</v>
       </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
@@ -26865,8 +26886,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M8" s="43"/>
+      <c r="N8" s="44"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>21</v>
       </c>
@@ -26900,8 +26923,10 @@
         <f t="shared" si="2"/>
         <v>3504</v>
       </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>22</v>
       </c>
@@ -26935,8 +26960,10 @@
         <f t="shared" si="2"/>
         <v>496</v>
       </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="44"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
@@ -26970,8 +26997,10 @@
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="20" t="s">
         <v>24</v>
       </c>
@@ -27005,8 +27034,10 @@
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
@@ -27040,8 +27071,10 @@
         <f t="shared" si="2"/>
         <v>1860</v>
       </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -27075,8 +27108,10 @@
         <f t="shared" si="2"/>
         <v>908</v>
       </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -27110,8 +27145,10 @@
         <f t="shared" si="2"/>
         <v>6729.5</v>
       </c>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>28</v>
       </c>
@@ -27145,8 +27182,10 @@
         <f t="shared" si="2"/>
         <v>318</v>
       </c>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="20" t="s">
         <v>29</v>
       </c>
@@ -27180,8 +27219,10 @@
         <f t="shared" si="2"/>
         <v>9344</v>
       </c>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="20" t="s">
         <v>30</v>
       </c>
@@ -27215,8 +27256,10 @@
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
     </row>
-    <row r="19" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>31</v>
       </c>
@@ -27250,8 +27293,10 @@
         <f>D19*$H19</f>
         <v>1252</v>
       </c>
+      <c r="M19" s="43"/>
+      <c r="N19" s="44"/>
     </row>
-    <row r="20" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>34</v>
       </c>
@@ -27274,7 +27319,7 @@
         <v>33395.5</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" ht="24" x14ac:dyDescent="0.3">
       <c r="L21" s="31">
         <f>K20-J20</f>
         <v>3395.5</v>
@@ -27283,7 +27328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>50</v>
       </c>
@@ -27294,21 +27339,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C25" s="42">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="38">
         <v>18000</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="38">
         <v>30000</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M5:M19">
+    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
